--- a/charitableContributions_2024.xlsx
+++ b/charitableContributions_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanodea/Documents/GitHub/CharitableScraper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odear\Desktop\Repos\CharitableScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E87C523F-728C-3849-900A-CCC5561D08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F45C72-F2F1-4564-9B23-FD876032C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
   <si>
     <t>Item</t>
   </si>
@@ -475,12 +475,30 @@
   </si>
   <si>
     <t>Food Scale</t>
+  </si>
+  <si>
+    <t>Desk Pad</t>
+  </si>
+  <si>
+    <t>Wall art</t>
+  </si>
+  <si>
+    <t>Vase</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Extendable Cable Sleeves (New)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1002,16 +1020,16 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1386,53 +1404,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
-        <v>603</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+        <v>690</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="E4" s="3" t="s">
         <v>135</v>
       </c>
@@ -1443,43 +1461,54 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>45295</v>
       </c>
       <c r="G5">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="E6" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>45325</v>
       </c>
       <c r="G6">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>45386</v>
       </c>
       <c r="G7">
         <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45417</v>
+      </c>
+      <c r="G8">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1493,26 +1522,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -1534,7 +1563,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1774,11 +1803,11 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s">
         <v>118</v>
@@ -1791,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1923,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1965,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2052,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2136,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2178,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2223,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2254,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2276,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2320,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2367,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2389,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2411,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2423,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2447,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2459,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2471,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2483,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2495,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2507,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2519,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2531,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2543,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2555,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2579,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2591,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2603,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2615,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2630,7 +2659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2642,19 +2671,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
       <c r="B45">
         <v>16</v>
       </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2669,7 +2701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2681,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2693,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2705,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2720,7 +2752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2732,19 +2764,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -2756,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -2768,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -2780,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2795,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -2810,7 +2845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2834,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2846,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2854,14 +2889,14 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -2873,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -2897,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -2912,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -2924,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -2936,19 +2971,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
       <c r="D68">
         <f t="shared" ref="D68:D93" si="4">B68*C68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -2960,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -2972,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -2984,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -2996,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -3008,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -3020,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -3032,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -3044,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -3056,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -3068,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -3080,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -3092,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -3104,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -3116,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -3128,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -3140,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -3152,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -3164,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -3176,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -3188,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -3200,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -3212,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -3224,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -3236,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -3251,7 +3289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -3262,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -3273,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -3284,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -3295,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -3303,6 +3341,72 @@
         <v>10</v>
       </c>
       <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104">
         <v>1</v>
       </c>
     </row>

--- a/charitableContributions_2024.xlsx
+++ b/charitableContributions_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odear\Desktop\Repos\CharitableScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F45C72-F2F1-4564-9B23-FD876032C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A5F8A-8245-402D-9221-C979D62B010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
   <si>
     <t>Item</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>Extendable Cable Sleeves (New)</t>
+  </si>
+  <si>
+    <t>Apple Watch Band</t>
+  </si>
+  <si>
+    <t>Earbuds</t>
+  </si>
+  <si>
+    <t>Growler</t>
+  </si>
+  <si>
+    <t>Smart Light Bulb</t>
+  </si>
+  <si>
+    <t>Gym Gear</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1462,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
-        <v>690</v>
+        <v>859</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1509,6 +1524,18 @@
       </c>
       <c r="G8">
         <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45444</v>
+      </c>
+      <c r="G9">
+        <f>859-690</f>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1523,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1803,11 +1830,11 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="P7" t="s">
         <v>118</v>
@@ -1848,11 +1875,11 @@
         <v>26</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="P8" t="s">
         <v>14</v>
@@ -1892,9 +1919,12 @@
       <c r="L9">
         <v>10</v>
       </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
         <v>15</v>
@@ -2235,11 +2265,11 @@
         <v>18</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="P17" t="s">
         <v>125</v>
@@ -2745,11 +2775,11 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,11 +2802,11 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,11 +2853,11 @@
         <v>8</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2838,11 +2868,11 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2954,9 +2984,12 @@
       <c r="B66">
         <v>2</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3385,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,6 +3440,61 @@
         <v>10</v>
       </c>
       <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
         <v>1</v>
       </c>
     </row>

--- a/charitableContributions_2024.xlsx
+++ b/charitableContributions_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odear\Desktop\Repos\CharitableScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A5F8A-8245-402D-9221-C979D62B010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705537C5-218C-4734-A93E-D0DAB909E5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
   <si>
     <t>Item</t>
   </si>
@@ -508,6 +508,21 @@
   </si>
   <si>
     <t>Gym Gear</t>
+  </si>
+  <si>
+    <t>Foot Massager</t>
+  </si>
+  <si>
+    <t>Water bottle</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Goggles</t>
+  </si>
+  <si>
+    <t>Coffee Mat</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1477,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
-        <v>859</v>
+        <v>1097</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1534,8 +1549,18 @@
         <v>45444</v>
       </c>
       <c r="G9">
-        <f>859-690</f>
         <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45543</v>
+      </c>
+      <c r="G10">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1550,16 +1575,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
@@ -1704,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N17" si="2">L4*M4</f>
+        <f t="shared" ref="N4:N20" si="2">L4*M4</f>
         <v>62</v>
       </c>
       <c r="P4" t="s">
@@ -1745,9 +1770,12 @@
       <c r="L5">
         <v>8</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
@@ -2302,6 +2330,10 @@
       <c r="M18">
         <v>4</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="P18" t="s">
         <v>126</v>
       </c>
@@ -2324,6 +2356,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="P19" t="s">
         <v>20</v>
       </c>
@@ -2346,6 +2391,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="P20" t="s">
         <v>21</v>
       </c>
@@ -2775,11 +2833,11 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,11 +2977,11 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D93" si="4">B68*C68</f>
+        <f t="shared" ref="D68:D112" si="4">B68*C68</f>
         <v>5</v>
       </c>
     </row>
@@ -3332,6 +3390,10 @@
       <c r="C94">
         <v>1</v>
       </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -3341,7 +3403,11 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3354,8 +3420,12 @@
       <c r="C96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -3365,8 +3435,12 @@
       <c r="C97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -3376,8 +3450,12 @@
       <c r="C98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -3387,8 +3465,12 @@
       <c r="C99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>148</v>
       </c>
@@ -3398,8 +3480,12 @@
       <c r="C100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -3409,8 +3495,12 @@
       <c r="C101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>150</v>
       </c>
@@ -3420,8 +3510,12 @@
       <c r="C102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -3431,8 +3525,12 @@
       <c r="C103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -3442,8 +3540,12 @@
       <c r="C104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -3453,8 +3555,12 @@
       <c r="C105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>154</v>
       </c>
@@ -3464,8 +3570,12 @@
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -3475,8 +3585,12 @@
       <c r="C107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -3486,8 +3600,12 @@
       <c r="C108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -3496,6 +3614,55 @@
       </c>
       <c r="C109">
         <v>1</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/charitableContributions_2024.xlsx
+++ b/charitableContributions_2024.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odear\Desktop\Repos\CharitableScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705537C5-218C-4734-A93E-D0DAB909E5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720FEEE-874F-4031-99F0-3C66613EE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Total" sheetId="2" r:id="rId1"/>
-    <sheet name="charitableContributions_2024" sheetId="1" r:id="rId2"/>
+    <sheet name="charitableContributions_2024" sheetId="1" r:id="rId1"/>
+    <sheet name="Total" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1434,151 +1434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
-        <v>1097</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45295</v>
-      </c>
-      <c r="G5">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="4">
-        <v>45325</v>
-      </c>
-      <c r="G6">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45386</v>
-      </c>
-      <c r="G7">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="4">
-        <v>45417</v>
-      </c>
-      <c r="G8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="4">
-        <v>45444</v>
-      </c>
-      <c r="G9">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45543</v>
-      </c>
-      <c r="G10">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="E1:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1903,11 +1763,11 @@
         <v>26</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="P8" t="s">
         <v>14</v>
@@ -1948,11 +1808,11 @@
         <v>10</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
         <v>15</v>
@@ -2079,9 +1939,12 @@
       <c r="L12">
         <v>12</v>
       </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
         <v>121</v>
@@ -2250,9 +2113,12 @@
       <c r="L16">
         <v>3</v>
       </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P16" t="s">
         <v>16</v>
@@ -3403,11 +3269,11 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,11 +3344,11 @@
         <v>5</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,11 +3509,11 @@
         <v>5</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,4 +3534,149 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
+        <v>1237</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45295</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45325</v>
+      </c>
+      <c r="G6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45386</v>
+      </c>
+      <c r="G7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45417</v>
+      </c>
+      <c r="G8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45444</v>
+      </c>
+      <c r="G9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45543</v>
+      </c>
+      <c r="G10">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="E1:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/charitableContributions_2024.xlsx
+++ b/charitableContributions_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odear\Desktop\Repos\CharitableScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720FEEE-874F-4031-99F0-3C66613EE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B21099-7923-4366-916D-AB9B1F6AF8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="charitableContributions_2024" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="163">
   <si>
     <t>Item</t>
   </si>
@@ -1435,10 +1435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3509,11 +3512,11 @@
         <v>5</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3533,6 +3536,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3540,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3580,7 +3584,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>SUM(charitableContributions_2024!D:D,charitableContributions_2024!I:I,charitableContributions_2024!N:N,charitableContributions_2024!S:S)</f>
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3667,8 +3671,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45620</v>
+      </c>
       <c r="G11">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3678,5 +3688,6 @@
     <mergeCell ref="E1:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>